--- a/Power BI.xlsx
+++ b/Power BI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTDL-Sage IT-1\Desktop\XYZ\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA14D75-3F89-4732-B031-48EE3C633D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875FAEDF-9C0A-404C-877F-23910C5F9F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,6 +80,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>160401</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEFA4EC1-4D92-DED8-6CC4-B0C5C6652937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="9525"/>
+          <a:ext cx="12190476" cy="6923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,7 +397,7 @@
   <dimension ref="B6:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,5 +412,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Power BI.xlsx
+++ b/Power BI.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTDL-Sage IT-1\Desktop\XYZ\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875FAEDF-9C0A-404C-877F-23910C5F9F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41170E-69A9-4060-A51D-7F0555DBD7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
+    <sheet name="Shipment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -120,6 +121,55 @@
         <a:xfrm>
           <a:off x="1990725" y="9525"/>
           <a:ext cx="12190476" cy="6923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>17295</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>170452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68837C3-7E02-F352-C010-CE0729C90399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14038095" cy="7980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -396,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -414,4 +464,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD5B01A-0837-457A-8A53-9BD7FE79EACC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>